--- a/surveys/Characterization 081919-196.xlsx
+++ b/surveys/Characterization 081919-196.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8340" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2360-190602" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Map" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2360-190602" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="_2360">#REF!</definedName>
+    <definedName name="_2360" localSheetId="0">#REF!</definedName>
     <definedName name="_2360">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Titles">'2360-190602'!$1:$17</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">'2360-190602'!$A$1:$S$37</definedName>
-    <definedName localSheetId="1" name="_xlnm.Print_Area">'Map'!$A$1:$BY$45</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'2360-190602'!$1:$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2360-190602'!$A$1:$S$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Map'!$A$1:$BY$45</definedName>
   </definedNames>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
@@ -23,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode=";;;" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode=";;;"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1425,977 +1425,977 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="329">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="24" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="51" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="51" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="57" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="63" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="60" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="64" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="64" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="65" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="65" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="61" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="62" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="18" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="18" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="24" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="26" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="30" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="26" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="29" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="29" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="31" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="18" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="32" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="33" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="33" fillId="3" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="34" fillId="3" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="36" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="34" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="37" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="35" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="38" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="39" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="33" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="40" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="41" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="41" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="52" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="53" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="52" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="18" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="53" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="41" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="45" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="51" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="69" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="69" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="70" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="71" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="68" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="68" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="72" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="72" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="75" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="75" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="81" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="82" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="82" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="24" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="31" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="83" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="83" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="48" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="83" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="83" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="48" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="20" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="23" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="25" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="31" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="83" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="1" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="23" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="48" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="44" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="52" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="66" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="66" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="52" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="53" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="68" fillId="2" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="68" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="73" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="73" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="74" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="74" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="77" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="77" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="79" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="79" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="56" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="56" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="80" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="80" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="43" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="76" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="76" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="78" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="78" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="55" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="55" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="56" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="19" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="19" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="76" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="76" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="18" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="3" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="58" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="59" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="60" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="67" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="67" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="25" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="26" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="54" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="55" fillId="3" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="56" fillId="3" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="49" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="56" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="50" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="3" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="3" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="3" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="3" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="3" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="3" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="43" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="46" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="47" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="50" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="43" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="46" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="28" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="29" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="27" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="20" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="21" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="16" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="13" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="17" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="22" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="23" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="54" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="55" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="56" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="18" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="2" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="55" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="55" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="50" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="50" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="84" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="84" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="85" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="84" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="84" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="87" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="88" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="88" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="90" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="27" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="44" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="46" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="44" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="93" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="93" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="47" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="88" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="88" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="50" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="42" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="45" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="86" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="86" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="45" fillId="3" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="86" fillId="3" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="86" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="45" fillId="3" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="86" fillId="3" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="86" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="86" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="95" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="86" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="86" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="87" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="55" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="56" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="79" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="79" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="88" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="96" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="96" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="70" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="70" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="26" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="69" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="69" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="81" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="81" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="85" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="84" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="84" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="95" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="2" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="86" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="86" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="87" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="88" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="88" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2736,23 +2736,23 @@
   </sheetPr>
   <dimension ref="A1:BC39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N11" sqref="N11:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="3.42578125"/>
-    <col customWidth="1" max="3" min="2" style="13" width="10.42578125"/>
-    <col customWidth="1" max="4" min="4" style="13" width="18.28515625"/>
-    <col customWidth="1" max="5" min="5" style="13" width="5.28515625"/>
-    <col customWidth="1" max="7" min="6" style="13" width="2.5703125"/>
-    <col customWidth="1" max="8" min="8" style="13" width="5.28515625"/>
-    <col customWidth="1" max="19" min="9" style="13" width="7.42578125"/>
-    <col customWidth="1" max="16384" min="20" style="13" width="9.140625"/>
+    <col width="3.42578125" customWidth="1" style="13" min="1" max="1"/>
+    <col width="10.42578125" customWidth="1" style="13" min="2" max="3"/>
+    <col width="18.28515625" customWidth="1" style="13" min="4" max="4"/>
+    <col width="5.28515625" customWidth="1" style="13" min="5" max="5"/>
+    <col width="2.5703125" customWidth="1" style="13" min="6" max="7"/>
+    <col width="5.28515625" customWidth="1" style="13" min="8" max="8"/>
+    <col width="7.42578125" customWidth="1" style="13" min="9" max="19"/>
+    <col width="9.140625" customWidth="1" style="13" min="20" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="39" r="1" s="92" thickBot="1">
+    <row r="1" ht="39" customHeight="1" s="92" thickBot="1">
       <c r="A1" s="221" t="n"/>
       <c r="B1" s="265" t="n"/>
       <c r="C1" s="265" t="n"/>
@@ -2773,7 +2773,7 @@
       <c r="R1" s="265" t="n"/>
       <c r="S1" s="265" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="2" s="92" thickTop="1">
+    <row r="2" ht="13.5" customHeight="1" s="92" thickTop="1">
       <c r="A2" s="14" t="n"/>
       <c r="B2" s="15" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
       <c r="R2" s="269" t="n"/>
       <c r="S2" s="267" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="3" s="92">
+    <row r="3" ht="13.5" customHeight="1" s="92">
       <c r="A3" s="16" t="n"/>
       <c r="B3" s="17" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
       <c r="R3" s="275" t="n"/>
       <c r="S3" s="278" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="4" s="92" thickBot="1">
+    <row r="4" ht="13.5" customHeight="1" s="92" thickBot="1">
       <c r="A4" s="18" t="n"/>
       <c r="B4" s="19" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
       <c r="R4" s="265" t="n"/>
       <c r="S4" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="5" s="92" thickTop="1">
+    <row r="5" ht="13.5" customHeight="1" s="92" thickTop="1">
       <c r="A5" s="20" t="n"/>
       <c r="B5" s="19" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="6" s="92">
+    <row r="6" ht="13.5" customHeight="1" s="92">
       <c r="A6" s="32" t="n"/>
       <c r="B6" s="33" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="7" s="92">
+    <row r="7" ht="13.5" customHeight="1" s="92">
       <c r="A7" s="46" t="n"/>
       <c r="B7" s="19" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="8" s="92" thickBot="1">
+    <row r="8" ht="13.5" customHeight="1" s="92" thickBot="1">
       <c r="A8" s="51" t="n"/>
       <c r="B8" s="19" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="9" s="92" thickTop="1">
+    <row r="9" ht="13.5" customHeight="1" s="92" thickTop="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
@@ -3134,7 +3134,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="10" s="92">
+    <row r="10" ht="13.5" customHeight="1" s="92">
       <c r="A10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   PCF = Probe Correction Factor</t>
@@ -3179,7 +3179,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="11" s="92">
+    <row r="11" ht="13.5" customHeight="1" s="92">
       <c r="A11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   Tb = Background count time</t>
@@ -3226,7 +3226,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="12" s="92">
+    <row r="12" ht="13.5" customHeight="1" s="92">
       <c r="A12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   Ts = Sample count time</t>
@@ -3272,7 +3272,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="13" s="92">
+    <row r="13" ht="13.5" customHeight="1" s="92">
       <c r="A13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   Rb = Background count rate</t>
@@ -3317,7 +3317,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="14" s="92">
+    <row r="14" ht="13.5" customHeight="1" s="92">
       <c r="A14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   Bcpm = Background cpm </t>
@@ -3357,7 +3357,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="15" s="92">
+    <row r="15" ht="13.5" customHeight="1" s="92">
       <c r="A15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   MDCR = Minimum Detectable Count Rate (net cpm)</t>
@@ -3401,7 +3401,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="16" s="92" thickBot="1">
+    <row r="16" ht="13.5" customHeight="1" s="92" thickBot="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   MDC = Minimum Detectable Concentration (dpm per 100cm2)</t>
@@ -3443,7 +3443,7 @@
       <c r="S16" s="293" t="n"/>
       <c r="V16" s="31" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="17" s="92" thickBot="1" thickTop="1">
+    <row r="17" ht="24" customHeight="1" s="92" thickBot="1" thickTop="1">
       <c r="A17" s="6" t="inlineStr">
         <is>
           <t>No.</t>
@@ -3516,7 +3516,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="18" s="81" thickTop="1">
+    <row r="18" ht="15.6" customFormat="1" customHeight="1" s="81" thickTop="1">
       <c r="A18" s="133" t="n">
         <v>1</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="19" s="81">
+    <row r="19" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A19" s="137" t="n">
         <v>2</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="20" s="81">
+    <row r="20" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A20" s="133" t="n">
         <v>3</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="21" s="81">
+    <row r="21" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A21" s="137" t="n">
         <v>4</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="22" s="81">
+    <row r="22" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A22" s="133" t="n">
         <v>5</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="23" s="81">
+    <row r="23" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A23" s="137" t="n">
         <v>6</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="24" s="81">
+    <row r="24" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A24" s="133" t="n">
         <v>7</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="25" s="81">
+    <row r="25" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A25" s="137" t="n">
         <v>8</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="26" s="81">
+    <row r="26" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A26" s="133" t="n">
         <v>9</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="27" s="81">
+    <row r="27" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A27" s="137" t="n">
         <v>10</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="28" s="81">
+    <row r="28" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A28" s="133" t="n">
         <v>11</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="29" s="81">
+    <row r="29" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A29" s="137" t="n"/>
       <c r="B29" s="320" t="n"/>
       <c r="C29" s="308" t="n"/>
@@ -4039,7 +4039,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="30" s="81">
+    <row r="30" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A30" s="133" t="n"/>
       <c r="B30" s="320" t="n"/>
       <c r="C30" s="308" t="n"/>
@@ -4072,7 +4072,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="31" s="81">
+    <row r="31" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A31" s="137" t="n"/>
       <c r="B31" s="320" t="n"/>
       <c r="C31" s="308" t="n"/>
@@ -4105,7 +4105,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="32" s="81">
+    <row r="32" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A32" s="133" t="n"/>
       <c r="B32" s="320" t="n"/>
       <c r="C32" s="308" t="n"/>
@@ -4138,7 +4138,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="33" s="81">
+    <row r="33" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A33" s="137" t="n"/>
       <c r="B33" s="320" t="n"/>
       <c r="C33" s="308" t="n"/>
@@ -4171,7 +4171,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="34" s="81">
+    <row r="34" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A34" s="133" t="n"/>
       <c r="B34" s="320" t="n"/>
       <c r="C34" s="308" t="n"/>
@@ -4204,7 +4204,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="35" s="81">
+    <row r="35" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A35" s="137" t="n"/>
       <c r="B35" s="167" t="n"/>
       <c r="C35" s="168" t="n"/>
@@ -4237,7 +4237,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="36" s="81">
+    <row r="36" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A36" s="133" t="n"/>
       <c r="B36" s="167" t="n"/>
       <c r="C36" s="168" t="n"/>
@@ -4270,7 +4270,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="37" s="81" thickBot="1">
+    <row r="37" ht="15.6" customFormat="1" customHeight="1" s="81" thickBot="1">
       <c r="A37" s="141" t="n"/>
       <c r="B37" s="321" t="n"/>
       <c r="C37" s="312" t="n"/>
@@ -4303,7 +4303,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="38" s="92" thickTop="1">
+    <row r="38" ht="15.75" customHeight="1" s="92" thickTop="1">
       <c r="A38" s="85" t="n"/>
       <c r="B38" s="85" t="n"/>
       <c r="C38" s="86" t="n"/>
@@ -4360,7 +4360,7 @@
       <c r="BB38" s="91" t="n"/>
       <c r="BC38" s="91" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="39" s="92">
+    <row r="39" ht="15.75" customHeight="1" s="92">
       <c r="A39" s="165" t="n"/>
       <c r="O39" s="166" t="n"/>
       <c r="T39" s="91" t="n"/>
@@ -4480,8 +4480,8 @@
     <mergeCell ref="B33:H33"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
-  <pageSetup fitToHeight="0" orientation="landscape" scale="97"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
+  <pageSetup orientation="landscape" scale="97" fitToHeight="0"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -4501,16 +4501,16 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="16384" min="1" style="150" width="1.7109375"/>
+    <col width="1.7109375" customWidth="1" style="150" min="1" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="38.25" r="1" s="92" thickBot="1">
+    <row r="1" ht="38.25" customHeight="1" s="92" thickBot="1">
       <c r="A1" s="258" t="n"/>
       <c r="B1" s="265" t="n"/>
       <c r="C1" s="265" t="n"/>
@@ -4589,7 +4589,7 @@
       <c r="BX1" s="265" t="n"/>
       <c r="BY1" s="265" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="2" s="92" thickTop="1">
+    <row r="2" ht="12" customHeight="1" s="92" thickTop="1">
       <c r="A2" s="93" t="n"/>
       <c r="B2" s="94" t="n"/>
       <c r="C2" s="94" t="n"/>
@@ -4668,7 +4668,7 @@
       <c r="BX2" s="94" t="n"/>
       <c r="BY2" s="95" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="3" s="92">
+    <row r="3" ht="12" customHeight="1" s="92">
       <c r="A3" s="96" t="n"/>
       <c r="B3" s="146" t="n"/>
       <c r="C3" s="147" t="n"/>
@@ -4747,7 +4747,7 @@
       <c r="BX3" s="147" t="n"/>
       <c r="BY3" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="4" s="92">
+    <row r="4" ht="12" customHeight="1" s="92">
       <c r="A4" s="96" t="n"/>
       <c r="B4" s="147" t="n"/>
       <c r="C4" s="147" t="n"/>
@@ -4826,7 +4826,7 @@
       <c r="BX4" s="147" t="n"/>
       <c r="BY4" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="5" s="92">
+    <row r="5" ht="12" customHeight="1" s="92">
       <c r="A5" s="103" t="n"/>
       <c r="B5" s="150" t="n"/>
       <c r="C5" s="150" t="n"/>
@@ -4905,7 +4905,7 @@
       <c r="BX5" s="150" t="n"/>
       <c r="BY5" s="99" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="6" s="92">
+    <row r="6" ht="12" customHeight="1" s="92">
       <c r="A6" s="103" t="n"/>
       <c r="B6" s="150" t="n"/>
       <c r="C6" s="150" t="n"/>
@@ -4984,7 +4984,7 @@
       <c r="BX6" s="150" t="n"/>
       <c r="BY6" s="99" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="7" s="92">
+    <row r="7" ht="12" customHeight="1" s="92">
       <c r="A7" s="103" t="n"/>
       <c r="B7" s="150" t="n"/>
       <c r="C7" s="150" t="n"/>
@@ -5063,7 +5063,7 @@
       <c r="BX7" s="150" t="n"/>
       <c r="BY7" s="99" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="8" s="92">
+    <row r="8" ht="12" customHeight="1" s="92">
       <c r="A8" s="103" t="n"/>
       <c r="B8" s="150" t="n"/>
       <c r="C8" s="150" t="n"/>
@@ -5142,7 +5142,7 @@
       <c r="BX8" s="150" t="n"/>
       <c r="BY8" s="99" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="9" s="92">
+    <row r="9" ht="12" customHeight="1" s="92">
       <c r="A9" s="103" t="n"/>
       <c r="B9" s="150" t="n"/>
       <c r="C9" s="150" t="n"/>
@@ -5221,7 +5221,7 @@
       <c r="BX9" s="150" t="n"/>
       <c r="BY9" s="99" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="10" s="92">
+    <row r="10" ht="12" customHeight="1" s="92">
       <c r="A10" s="103" t="n"/>
       <c r="B10" s="150" t="n"/>
       <c r="C10" s="150" t="n"/>
@@ -5300,7 +5300,7 @@
       <c r="BX10" s="150" t="n"/>
       <c r="BY10" s="99" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="11" s="92">
+    <row r="11" ht="12" customHeight="1" s="92">
       <c r="A11" s="103" t="n"/>
       <c r="B11" s="150" t="n"/>
       <c r="C11" s="150" t="n"/>
@@ -5379,7 +5379,7 @@
       <c r="BX11" s="150" t="n"/>
       <c r="BY11" s="99" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="12" s="92">
+    <row r="12" ht="12" customHeight="1" s="92">
       <c r="A12" s="103" t="n"/>
       <c r="B12" s="150" t="n"/>
       <c r="C12" s="150" t="n"/>
@@ -5458,7 +5458,7 @@
       <c r="BX12" s="150" t="n"/>
       <c r="BY12" s="99" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="13" s="92">
+    <row r="13" ht="12" customHeight="1" s="92">
       <c r="A13" s="103" t="n"/>
       <c r="B13" s="150" t="n"/>
       <c r="C13" s="150" t="n"/>
@@ -5537,7 +5537,7 @@
       <c r="BX13" s="150" t="n"/>
       <c r="BY13" s="99" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="14" s="92">
+    <row r="14" ht="12" customHeight="1" s="92">
       <c r="A14" s="103" t="n"/>
       <c r="B14" s="150" t="n"/>
       <c r="C14" s="150" t="n"/>
@@ -5616,7 +5616,7 @@
       <c r="BX14" s="150" t="n"/>
       <c r="BY14" s="99" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="15" s="92">
+    <row r="15" ht="12" customHeight="1" s="92">
       <c r="A15" s="103" t="n"/>
       <c r="B15" s="150" t="n"/>
       <c r="C15" s="150" t="n"/>
@@ -5714,7 +5714,7 @@
       <c r="DG15" s="123" t="n"/>
       <c r="DH15" s="123" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="16" s="92">
+    <row r="16" ht="12" customHeight="1" s="92">
       <c r="A16" s="103" t="n"/>
       <c r="B16" s="150" t="n"/>
       <c r="C16" s="150" t="n"/>
@@ -5812,7 +5812,7 @@
       <c r="DG16" s="123" t="n"/>
       <c r="DH16" s="123" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="17" s="92">
+    <row r="17" ht="12" customHeight="1" s="92">
       <c r="A17" s="103" t="n"/>
       <c r="B17" s="150" t="n"/>
       <c r="C17" s="150" t="n"/>
@@ -5910,7 +5910,7 @@
       <c r="DG17" s="123" t="n"/>
       <c r="DH17" s="123" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="18" s="92">
+    <row r="18" ht="12" customHeight="1" s="92">
       <c r="A18" s="103" t="n"/>
       <c r="B18" s="150" t="n"/>
       <c r="C18" s="150" t="n"/>
@@ -6008,7 +6008,7 @@
       <c r="DG18" s="123" t="n"/>
       <c r="DH18" s="123" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="19" s="92">
+    <row r="19" ht="12" customHeight="1" s="92">
       <c r="A19" s="103" t="n"/>
       <c r="B19" s="150" t="n"/>
       <c r="C19" s="150" t="n"/>
@@ -6106,7 +6106,7 @@
       <c r="DG19" s="123" t="n"/>
       <c r="DH19" s="123" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="20" s="92">
+    <row r="20" ht="12" customHeight="1" s="92">
       <c r="A20" s="103" t="n"/>
       <c r="B20" s="150" t="n"/>
       <c r="C20" s="150" t="n"/>
@@ -6204,7 +6204,7 @@
       <c r="DG20" s="123" t="n"/>
       <c r="DH20" s="123" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="21" s="92">
+    <row r="21" ht="12" customHeight="1" s="92">
       <c r="A21" s="103" t="n"/>
       <c r="B21" s="150" t="n"/>
       <c r="C21" s="150" t="n"/>
@@ -6302,7 +6302,7 @@
       <c r="DG21" s="123" t="n"/>
       <c r="DH21" s="123" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="22" s="92">
+    <row r="22" ht="12" customHeight="1" s="92">
       <c r="A22" s="103" t="n"/>
       <c r="B22" s="150" t="n"/>
       <c r="C22" s="150" t="n"/>
@@ -6400,7 +6400,7 @@
       <c r="DG22" s="123" t="n"/>
       <c r="DH22" s="123" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="23" s="92">
+    <row r="23" ht="12" customHeight="1" s="92">
       <c r="A23" s="103" t="n"/>
       <c r="B23" s="150" t="n"/>
       <c r="C23" s="150" t="n"/>
@@ -6498,7 +6498,7 @@
       <c r="DG23" s="123" t="n"/>
       <c r="DH23" s="123" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="24" s="92">
+    <row r="24" ht="12" customHeight="1" s="92">
       <c r="A24" s="103" t="n"/>
       <c r="B24" s="150" t="n"/>
       <c r="C24" s="150" t="n"/>
@@ -6577,7 +6577,7 @@
       <c r="BX24" s="150" t="n"/>
       <c r="BY24" s="99" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="25" s="92">
+    <row r="25" ht="12" customHeight="1" s="92">
       <c r="A25" s="103" t="n"/>
       <c r="B25" s="150" t="n"/>
       <c r="C25" s="150" t="n"/>
@@ -6656,7 +6656,7 @@
       <c r="BX25" s="150" t="n"/>
       <c r="BY25" s="99" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="26" s="92">
+    <row r="26" ht="12" customHeight="1" s="92">
       <c r="A26" s="103" t="n"/>
       <c r="B26" s="150" t="n"/>
       <c r="C26" s="150" t="n"/>
@@ -6735,7 +6735,7 @@
       <c r="BX26" s="150" t="n"/>
       <c r="BY26" s="99" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="27" s="92">
+    <row r="27" ht="12" customHeight="1" s="92">
       <c r="A27" s="103" t="n"/>
       <c r="B27" s="123" t="n"/>
       <c r="C27" s="123" t="n"/>
@@ -6814,7 +6814,7 @@
       <c r="BX27" s="150" t="n"/>
       <c r="BY27" s="99" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="28" s="92">
+    <row r="28" ht="12" customHeight="1" s="92">
       <c r="A28" s="103" t="n"/>
       <c r="B28" s="123" t="n"/>
       <c r="C28" s="123" t="n"/>
@@ -6893,7 +6893,7 @@
       <c r="BX28" s="150" t="n"/>
       <c r="BY28" s="99" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="29" s="92">
+    <row r="29" ht="12" customHeight="1" s="92">
       <c r="A29" s="103" t="n"/>
       <c r="B29" s="123" t="n"/>
       <c r="C29" s="123" t="n"/>
@@ -6972,7 +6972,7 @@
       <c r="BX29" s="150" t="n"/>
       <c r="BY29" s="99" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="30" s="92">
+    <row r="30" ht="12" customHeight="1" s="92">
       <c r="A30" s="103" t="n"/>
       <c r="B30" s="123" t="n"/>
       <c r="C30" s="123" t="n"/>
@@ -7051,7 +7051,7 @@
       <c r="BX30" s="150" t="n"/>
       <c r="BY30" s="99" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="31" s="92">
+    <row r="31" ht="12" customHeight="1" s="92">
       <c r="A31" s="103" t="n"/>
       <c r="B31" s="123" t="n"/>
       <c r="C31" s="123" t="n"/>
@@ -7130,7 +7130,7 @@
       <c r="BX31" s="150" t="n"/>
       <c r="BY31" s="99" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="32" s="92">
+    <row r="32" ht="12" customHeight="1" s="92">
       <c r="A32" s="103" t="n"/>
       <c r="B32" s="123" t="n"/>
       <c r="C32" s="123" t="n"/>
@@ -7209,7 +7209,7 @@
       <c r="BX32" s="150" t="n"/>
       <c r="BY32" s="99" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="33" s="92">
+    <row r="33" ht="12" customHeight="1" s="92">
       <c r="A33" s="103" t="n"/>
       <c r="B33" s="123" t="n"/>
       <c r="C33" s="123" t="n"/>
@@ -7288,7 +7288,7 @@
       <c r="BX33" s="150" t="n"/>
       <c r="BY33" s="99" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="34" s="92">
+    <row r="34" ht="12" customHeight="1" s="92">
       <c r="A34" s="103" t="n"/>
       <c r="B34" s="123" t="n"/>
       <c r="C34" s="123" t="n"/>
@@ -7367,7 +7367,7 @@
       <c r="BX34" s="150" t="n"/>
       <c r="BY34" s="99" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="35" s="92">
+    <row r="35" ht="12" customHeight="1" s="92">
       <c r="A35" s="103" t="n"/>
       <c r="B35" s="123" t="n"/>
       <c r="C35" s="123" t="n"/>
@@ -7446,7 +7446,7 @@
       <c r="BX35" s="150" t="n"/>
       <c r="BY35" s="99" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="36" s="92">
+    <row r="36" ht="12" customHeight="1" s="92">
       <c r="A36" s="103" t="n"/>
       <c r="B36" s="123" t="n"/>
       <c r="C36" s="123" t="n"/>
@@ -7525,7 +7525,7 @@
       <c r="BX36" s="150" t="n"/>
       <c r="BY36" s="99" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="37" s="92" thickBot="1">
+    <row r="37" ht="12" customHeight="1" s="92" thickBot="1">
       <c r="A37" s="105" t="n"/>
       <c r="B37" s="108" t="n"/>
       <c r="C37" s="108" t="n"/>
@@ -7604,7 +7604,7 @@
       <c r="BX37" s="108" t="n"/>
       <c r="BY37" s="109" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="38" s="92" thickTop="1">
+    <row r="38" ht="12" customHeight="1" s="92" thickTop="1">
       <c r="A38" s="322" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -7687,7 +7687,7 @@
       <c r="BX38" s="110" t="n"/>
       <c r="BY38" s="112" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="39" s="92">
+    <row r="39" ht="12" customHeight="1" s="92">
       <c r="A39" s="324" t="inlineStr">
         <is>
           <t>Date</t>
@@ -7770,7 +7770,7 @@
       <c r="BX39" s="111" t="n"/>
       <c r="BY39" s="113" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="40" s="92">
+    <row r="40" ht="12" customHeight="1" s="92">
       <c r="A40" s="324" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -7876,7 +7876,7 @@
       <c r="CU40" s="150" t="n"/>
       <c r="CV40" s="150" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="41" s="92">
+    <row r="41" ht="12" customHeight="1" s="92">
       <c r="A41" s="324" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -7982,7 +7982,7 @@
       <c r="CU41" s="150" t="n"/>
       <c r="CV41" s="150" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="42" s="92">
+    <row r="42" ht="12" customHeight="1" s="92">
       <c r="A42" s="324" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -8088,7 +8088,7 @@
       <c r="CU42" s="150" t="n"/>
       <c r="CV42" s="150" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="43" s="92">
+    <row r="43" ht="12" customHeight="1" s="92">
       <c r="A43" s="324" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -8194,7 +8194,7 @@
       <c r="CU43" s="150" t="n"/>
       <c r="CV43" s="150" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="44" s="92">
+    <row r="44" ht="12" customHeight="1" s="92">
       <c r="A44" s="324" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -8300,7 +8300,7 @@
       <c r="CU44" s="150" t="n"/>
       <c r="CV44" s="150" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="45" s="92" thickBot="1">
+    <row r="45" ht="12" customHeight="1" s="92" thickBot="1">
       <c r="A45" s="327" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -8406,15 +8406,15 @@
       <c r="CU45" s="150" t="n"/>
       <c r="CV45" s="150" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="46" s="92" thickTop="1"/>
+    <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
     <row r="47"/>
     <row r="48"/>
     <row r="49"/>
-    <row customHeight="1" ht="12" r="51" s="92">
+    <row r="51" ht="12" customHeight="1" s="92">
       <c r="A51" s="125" t="n"/>
       <c r="B51" s="123" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="52" s="92">
+    <row r="52" ht="12" customHeight="1" s="92">
       <c r="A52" s="125" t="n"/>
       <c r="B52" s="123" t="n"/>
     </row>
@@ -8439,8 +8439,8 @@
     <mergeCell ref="K45:Y45"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
-  <pageSetup fitToHeight="0" orientation="landscape"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
+  <pageSetup orientation="landscape" fitToHeight="0"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>

--- a/surveys/Characterization 081919-196.xlsx
+++ b/surveys/Characterization 081919-196.xlsx
@@ -2734,7 +2734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BC49"/>
+  <dimension ref="A1:BC39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N11" sqref="N11:O11"/>
@@ -4400,16 +4400,6 @@
       <c r="BB39" s="91" t="n"/>
       <c r="BC39" s="91" t="n"/>
     </row>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
   </sheetData>
   <mergeCells count="76">
     <mergeCell ref="A1:S1"/>
@@ -8417,9 +8407,6 @@
       <c r="CV45" s="150" t="n"/>
     </row>
     <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
     <row r="51" ht="12" customHeight="1" s="92">
       <c r="A51" s="125" t="n"/>
       <c r="B51" s="123" t="n"/>
